--- a/measures.xlsx
+++ b/measures.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theo_\Documents\CAS\Master thesis\TutorialGIT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3983BF-A677-439E-BF59-70CA10B0F989}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E9319CF9-9B36-446B-A9EA-84E49246EF14}"/>
+    <workbookView xWindow="-80" yWindow="-740" windowWidth="25600" windowHeight="14360"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$H$1:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$H$41</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="130000"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,12 +23,15 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Graph measure</t>
   </si>
@@ -184,13 +181,29 @@
   </si>
   <si>
     <t>Closeness_within_subgraph_in</t>
+  </si>
+  <si>
+    <t>Participation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smallworldness</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Density</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Randomize</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +234,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +271,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="21"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -285,143 +321,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
       <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -432,7 +351,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -447,7 +366,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -456,10 +375,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -467,14 +401,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -487,7 +436,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -502,7 +451,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -511,11 +460,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -524,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -543,35 +494,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -626,7 +569,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -678,7 +621,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -872,72 +815,73 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8794421D-1136-45AC-AD11-A69C5A861318}">
-  <dimension ref="A1:H42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="16" thickTop="1" thickBot="1">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="9"/>
@@ -945,13 +889,13 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="17"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="9"/>
@@ -959,13 +903,13 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="17"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="9"/>
@@ -973,10 +917,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="9"/>
@@ -984,10 +928,10 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="10"/>
@@ -995,10 +939,10 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="10"/>
@@ -1006,10 +950,10 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="10"/>
@@ -1017,10 +961,10 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="11"/>
@@ -1028,10 +972,10 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="9"/>
@@ -1039,10 +983,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="9"/>
@@ -1050,10 +994,10 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="9"/>
@@ -1061,10 +1005,10 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="9"/>
@@ -1072,308 +1016,362 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="23" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="23" t="s">
         <v>10</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
-        <v>22</v>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="12" t="s">
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="23" t="s">
         <v>24</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="27" t="s">
-        <v>25</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="s">
-        <v>26</v>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
-        <v>40</v>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
-        <v>41</v>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="s">
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="23" t="s">
         <v>29</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="27" t="s">
-        <v>27</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="27" t="s">
-        <v>11</v>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="27" t="s">
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="23" t="s">
         <v>35</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="18"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="18"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="27" t="s">
-        <v>38</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="s">
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="27" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="28" t="s">
+      <c r="B44" s="10"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1">
+      <c r="A45" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="31"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <autoFilter ref="A1:H41"/>
+  <sortState ref="A2:H45">
+    <sortCondition ref="A3:A45"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/measures.xlsx
+++ b/measures.xlsx
@@ -246,7 +246,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +283,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -475,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -495,20 +501,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,7 +824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -828,7 +837,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -844,7 +853,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="16" thickTop="1" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -867,21 +876,21 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="9"/>
@@ -889,13 +898,13 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="15"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="9"/>
@@ -903,13 +912,13 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="15"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="9"/>
@@ -917,10 +926,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="9"/>
@@ -928,43 +937,43 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="15"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="15"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="15"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="15"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="11"/>
@@ -972,10 +981,10 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="9"/>
@@ -983,10 +992,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="9"/>
@@ -994,10 +1003,10 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="9"/>
@@ -1005,10 +1014,10 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="9"/>
@@ -1016,21 +1025,21 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="15"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="9"/>
@@ -1038,32 +1047,32 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="15"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="15"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="15"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="9"/>
@@ -1071,10 +1080,10 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="15"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="9"/>
@@ -1082,10 +1091,10 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="9"/>
@@ -1093,10 +1102,10 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="15"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="9"/>
@@ -1104,10 +1113,10 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="15"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="9"/>
@@ -1115,10 +1124,10 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="15"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="9"/>
@@ -1126,10 +1135,10 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="15"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="9"/>
@@ -1137,10 +1146,10 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="15"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="9"/>
@@ -1148,10 +1157,10 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="9"/>
@@ -1159,10 +1168,10 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="15"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="10"/>
@@ -1170,10 +1179,10 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="15"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="10"/>
@@ -1181,10 +1190,10 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="15"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="9"/>
@@ -1192,10 +1201,10 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="15"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="9"/>
@@ -1203,10 +1212,10 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="15"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="9"/>
@@ -1214,10 +1223,10 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="15"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="9"/>
@@ -1225,32 +1234,32 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="15"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="15"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="15"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="10"/>
@@ -1258,10 +1267,10 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="15"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="22" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="10"/>
@@ -1269,10 +1278,10 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="15"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="9"/>
@@ -1280,10 +1289,10 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="16"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="9"/>
@@ -1291,10 +1300,10 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="16"/>
+      <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="9"/>
@@ -1302,10 +1311,10 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="16"/>
+      <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="9"/>
@@ -1313,10 +1322,10 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="16"/>
+      <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="9"/>
@@ -1324,10 +1333,10 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="16"/>
+      <c r="G42" s="14"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="10"/>
@@ -1335,10 +1344,10 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="15"/>
+      <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="10"/>
@@ -1346,21 +1355,20 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="15"/>
+      <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="18"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <autoFilter ref="A1:H41"/>
   <sortState ref="A2:H45">
     <sortCondition ref="A3:A45"/>
